--- a/natmiOut/OldD4/LR-pairs_lrc2p/Clec11a-Itga11.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Clec11a-Itga11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,16 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Clec11a</t>
   </si>
   <si>
     <t>Itga11</t>
   </si>
   <si>
-    <t>sCs</t>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -443,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -528,49 +537,49 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>11.6626613153488</v>
+        <v>0.059611</v>
       </c>
       <c r="H2">
-        <v>11.6626613153488</v>
+        <v>0.178833</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.004672740604968267</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.004702393918265596</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>19.0235905843124</v>
+        <v>0.1363906666666667</v>
       </c>
       <c r="N2">
-        <v>19.0235905843124</v>
+        <v>0.409172</v>
       </c>
       <c r="O2">
-        <v>0.9798382975242389</v>
+        <v>0.006421450140662058</v>
       </c>
       <c r="P2">
-        <v>0.9798382975242389</v>
+        <v>0.006461395109718823</v>
       </c>
       <c r="Q2">
-        <v>221.8656939866939</v>
+        <v>0.008130384030666666</v>
       </c>
       <c r="R2">
-        <v>221.8656939866939</v>
+        <v>0.073173456276</v>
       </c>
       <c r="S2">
-        <v>0.9798382975242389</v>
+        <v>3.000577081505079E-05</v>
       </c>
       <c r="T2">
-        <v>0.9798382975242389</v>
+        <v>3.038402506745286E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,61 +587,1177 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G3">
+        <v>0.059611</v>
+      </c>
+      <c r="H3">
+        <v>0.178833</v>
+      </c>
+      <c r="I3">
+        <v>0.004672740604968267</v>
+      </c>
+      <c r="J3">
+        <v>0.004702393918265596</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>20.66750966666667</v>
+      </c>
+      <c r="N3">
+        <v>62.002529</v>
+      </c>
+      <c r="O3">
+        <v>0.9730532601655376</v>
+      </c>
+      <c r="P3">
+        <v>0.9791061892573283</v>
+      </c>
+      <c r="Q3">
+        <v>1.232010918739667</v>
+      </c>
+      <c r="R3">
+        <v>11.088098268657</v>
+      </c>
+      <c r="S3">
+        <v>0.004546825479572259</v>
+      </c>
+      <c r="T3">
+        <v>0.004604142989699865</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.059611</v>
+      </c>
+      <c r="H4">
+        <v>0.178833</v>
+      </c>
+      <c r="I4">
+        <v>0.004672740604968267</v>
+      </c>
+      <c r="J4">
+        <v>0.004702393918265596</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.02296733333333334</v>
+      </c>
+      <c r="N4">
+        <v>0.068902</v>
+      </c>
+      <c r="O4">
+        <v>0.001081331952313201</v>
+      </c>
+      <c r="P4">
+        <v>0.001088058434716565</v>
+      </c>
+      <c r="Q4">
+        <v>0.001369105707333333</v>
+      </c>
+      <c r="R4">
+        <v>0.012321951366</v>
+      </c>
+      <c r="S4">
+        <v>5.052783721023505E-06</v>
+      </c>
+      <c r="T4">
+        <v>5.11647936612876E-06</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.059611</v>
+      </c>
+      <c r="H5">
+        <v>0.178833</v>
+      </c>
+      <c r="I5">
+        <v>0.004672740604968267</v>
+      </c>
+      <c r="J5">
+        <v>0.004702393918265596</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.01906633333333333</v>
+      </c>
+      <c r="N5">
+        <v>0.057199</v>
+      </c>
+      <c r="O5">
+        <v>0.0008976677939735101</v>
+      </c>
+      <c r="P5">
+        <v>0.0009032517837994949</v>
+      </c>
+      <c r="Q5">
+        <v>0.001136563196333333</v>
+      </c>
+      <c r="R5">
+        <v>0.010229068767</v>
+      </c>
+      <c r="S5">
+        <v>4.19456875067231E-06</v>
+      </c>
+      <c r="T5">
+        <v>4.247445694801296E-06</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>11.6626613153488</v>
-      </c>
-      <c r="H3">
-        <v>11.6626613153488</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>0.391440071643157</v>
-      </c>
-      <c r="N3">
-        <v>0.391440071643157</v>
-      </c>
-      <c r="O3">
-        <v>0.02016170247576111</v>
-      </c>
-      <c r="P3">
-        <v>0.02016170247576111</v>
-      </c>
-      <c r="Q3">
-        <v>4.565232980830009</v>
-      </c>
-      <c r="R3">
-        <v>4.565232980830009</v>
-      </c>
-      <c r="S3">
-        <v>0.02016170247576111</v>
-      </c>
-      <c r="T3">
-        <v>0.02016170247576111</v>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.059611</v>
+      </c>
+      <c r="H6">
+        <v>0.178833</v>
+      </c>
+      <c r="I6">
+        <v>0.004672740604968267</v>
+      </c>
+      <c r="J6">
+        <v>0.004702393918265596</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.3939205</v>
+      </c>
+      <c r="N6">
+        <v>0.787841</v>
+      </c>
+      <c r="O6">
+        <v>0.01854628994751353</v>
+      </c>
+      <c r="P6">
+        <v>0.01244110541443693</v>
+      </c>
+      <c r="Q6">
+        <v>0.0234819949255</v>
+      </c>
+      <c r="R6">
+        <v>0.140891969553</v>
+      </c>
+      <c r="S6">
+        <v>8.666200210926124E-05</v>
+      </c>
+      <c r="T6">
+        <v>5.850297843734939E-05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>12.37971233333334</v>
+      </c>
+      <c r="H7">
+        <v>37.13913700000001</v>
+      </c>
+      <c r="I7">
+        <v>0.9704112411768488</v>
+      </c>
+      <c r="J7">
+        <v>0.9765694919753783</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.1363906666666667</v>
+      </c>
+      <c r="N7">
+        <v>0.409172</v>
+      </c>
+      <c r="O7">
+        <v>0.006421450140662058</v>
+      </c>
+      <c r="P7">
+        <v>0.006461395109718823</v>
+      </c>
+      <c r="Q7">
+        <v>1.688477218284889</v>
+      </c>
+      <c r="R7">
+        <v>15.196294964564</v>
+      </c>
+      <c r="S7">
+        <v>0.006231447401155118</v>
+      </c>
+      <c r="T7">
+        <v>0.006310001339750304</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>12.37971233333334</v>
+      </c>
+      <c r="H8">
+        <v>37.13913700000001</v>
+      </c>
+      <c r="I8">
+        <v>0.9704112411768488</v>
+      </c>
+      <c r="J8">
+        <v>0.9765694919753783</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>20.66750966666667</v>
+      </c>
+      <c r="N8">
+        <v>62.002529</v>
+      </c>
+      <c r="O8">
+        <v>0.9730532601655376</v>
+      </c>
+      <c r="P8">
+        <v>0.9791061892573283</v>
+      </c>
+      <c r="Q8">
+        <v>255.8578243197193</v>
+      </c>
+      <c r="R8">
+        <v>2302.720418877474</v>
+      </c>
+      <c r="S8">
+        <v>0.9442618219284186</v>
+      </c>
+      <c r="T8">
+        <v>0.9561652338329777</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>12.37971233333334</v>
+      </c>
+      <c r="H9">
+        <v>37.13913700000001</v>
+      </c>
+      <c r="I9">
+        <v>0.9704112411768488</v>
+      </c>
+      <c r="J9">
+        <v>0.9765694919753783</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.02296733333333334</v>
+      </c>
+      <c r="N9">
+        <v>0.068902</v>
+      </c>
+      <c r="O9">
+        <v>0.001081331952313201</v>
+      </c>
+      <c r="P9">
+        <v>0.001088058434716565</v>
+      </c>
+      <c r="Q9">
+        <v>0.2843289797304445</v>
+      </c>
+      <c r="R9">
+        <v>2.558960817574</v>
+      </c>
+      <c r="S9">
+        <v>0.001049336681968439</v>
+      </c>
+      <c r="T9">
+        <v>0.001062564672830681</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>12.37971233333334</v>
+      </c>
+      <c r="H10">
+        <v>37.13913700000001</v>
+      </c>
+      <c r="I10">
+        <v>0.9704112411768488</v>
+      </c>
+      <c r="J10">
+        <v>0.9765694919753783</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.01906633333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.057199</v>
+      </c>
+      <c r="O10">
+        <v>0.0008976677939735101</v>
+      </c>
+      <c r="P10">
+        <v>0.0009032517837994949</v>
+      </c>
+      <c r="Q10">
+        <v>0.2360357219181112</v>
+      </c>
+      <c r="R10">
+        <v>2.124321497263</v>
+      </c>
+      <c r="S10">
+        <v>0.0008711069181143177</v>
+      </c>
+      <c r="T10">
+        <v>0.000882088135630927</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>12.37971233333334</v>
+      </c>
+      <c r="H11">
+        <v>37.13913700000001</v>
+      </c>
+      <c r="I11">
+        <v>0.9704112411768488</v>
+      </c>
+      <c r="J11">
+        <v>0.9765694919753783</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.3939205</v>
+      </c>
+      <c r="N11">
+        <v>0.787841</v>
+      </c>
+      <c r="O11">
+        <v>0.01854628994751353</v>
+      </c>
+      <c r="P11">
+        <v>0.01244110541443693</v>
+      </c>
+      <c r="Q11">
+        <v>4.876622472202834</v>
+      </c>
+      <c r="R11">
+        <v>29.259734833217</v>
+      </c>
+      <c r="S11">
+        <v>0.01799752824719232</v>
+      </c>
+      <c r="T11">
+        <v>0.0121496039941888</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.07651766666666666</v>
+      </c>
+      <c r="H12">
+        <v>0.229553</v>
+      </c>
+      <c r="I12">
+        <v>0.005998007213949779</v>
+      </c>
+      <c r="J12">
+        <v>0.006036070697911585</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.1363906666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.409172</v>
+      </c>
+      <c r="O12">
+        <v>0.006421450140662058</v>
+      </c>
+      <c r="P12">
+        <v>0.006461395109718823</v>
+      </c>
+      <c r="Q12">
+        <v>0.01043629556844444</v>
+      </c>
+      <c r="R12">
+        <v>0.093926660116</v>
+      </c>
+      <c r="S12">
+        <v>3.851590426770984E-05</v>
+      </c>
+      <c r="T12">
+        <v>3.9001437689403E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.07651766666666666</v>
+      </c>
+      <c r="H13">
+        <v>0.229553</v>
+      </c>
+      <c r="I13">
+        <v>0.005998007213949779</v>
+      </c>
+      <c r="J13">
+        <v>0.006036070697911585</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>20.66750966666667</v>
+      </c>
+      <c r="N13">
+        <v>62.002529</v>
+      </c>
+      <c r="O13">
+        <v>0.9730532601655376</v>
+      </c>
+      <c r="P13">
+        <v>0.9791061892573283</v>
+      </c>
+      <c r="Q13">
+        <v>1.581429615504111</v>
+      </c>
+      <c r="R13">
+        <v>14.232866539537</v>
+      </c>
+      <c r="S13">
+        <v>0.005836380474030245</v>
+      </c>
+      <c r="T13">
+        <v>0.005909954179120034</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.07651766666666666</v>
+      </c>
+      <c r="H14">
+        <v>0.229553</v>
+      </c>
+      <c r="I14">
+        <v>0.005998007213949779</v>
+      </c>
+      <c r="J14">
+        <v>0.006036070697911585</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.02296733333333334</v>
+      </c>
+      <c r="N14">
+        <v>0.068902</v>
+      </c>
+      <c r="O14">
+        <v>0.001081331952313201</v>
+      </c>
+      <c r="P14">
+        <v>0.001088058434716565</v>
+      </c>
+      <c r="Q14">
+        <v>0.001757406756222222</v>
+      </c>
+      <c r="R14">
+        <v>0.015816660806</v>
+      </c>
+      <c r="S14">
+        <v>6.485836850648979E-06</v>
+      </c>
+      <c r="T14">
+        <v>6.567597635408204E-06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.07651766666666666</v>
+      </c>
+      <c r="H15">
+        <v>0.229553</v>
+      </c>
+      <c r="I15">
+        <v>0.005998007213949779</v>
+      </c>
+      <c r="J15">
+        <v>0.006036070697911585</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.01906633333333333</v>
+      </c>
+      <c r="N15">
+        <v>0.057199</v>
+      </c>
+      <c r="O15">
+        <v>0.0008976677939735101</v>
+      </c>
+      <c r="P15">
+        <v>0.0009032517837994949</v>
+      </c>
+      <c r="Q15">
+        <v>0.001458911338555556</v>
+      </c>
+      <c r="R15">
+        <v>0.013130202047</v>
+      </c>
+      <c r="S15">
+        <v>5.384217903983497E-06</v>
+      </c>
+      <c r="T15">
+        <v>5.452091625028502E-06</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.07651766666666666</v>
+      </c>
+      <c r="H16">
+        <v>0.229553</v>
+      </c>
+      <c r="I16">
+        <v>0.005998007213949779</v>
+      </c>
+      <c r="J16">
+        <v>0.006036070697911585</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.3939205</v>
+      </c>
+      <c r="N16">
+        <v>0.787841</v>
+      </c>
+      <c r="O16">
+        <v>0.01854628994751353</v>
+      </c>
+      <c r="P16">
+        <v>0.01244110541443693</v>
+      </c>
+      <c r="Q16">
+        <v>0.03014187751216667</v>
+      </c>
+      <c r="R16">
+        <v>0.180851265073</v>
+      </c>
+      <c r="S16">
+        <v>0.0001112407808971904</v>
+      </c>
+      <c r="T16">
+        <v>7.509539184171192E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.5</v>
+      </c>
+      <c r="G17">
+        <v>0.2413405</v>
+      </c>
+      <c r="H17">
+        <v>0.482681</v>
+      </c>
+      <c r="I17">
+        <v>0.01891801100423318</v>
+      </c>
+      <c r="J17">
+        <v>0.01269204340844451</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.1363906666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.409172</v>
+      </c>
+      <c r="O17">
+        <v>0.006421450140662058</v>
+      </c>
+      <c r="P17">
+        <v>0.006461395109718823</v>
+      </c>
+      <c r="Q17">
+        <v>0.03291659168866667</v>
+      </c>
+      <c r="R17">
+        <v>0.197499550132</v>
+      </c>
+      <c r="S17">
+        <v>0.0001214810644241795</v>
+      </c>
+      <c r="T17">
+        <v>8.200830721166235E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.5</v>
+      </c>
+      <c r="G18">
+        <v>0.2413405</v>
+      </c>
+      <c r="H18">
+        <v>0.482681</v>
+      </c>
+      <c r="I18">
+        <v>0.01891801100423318</v>
+      </c>
+      <c r="J18">
+        <v>0.01269204340844451</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>20.66750966666667</v>
+      </c>
+      <c r="N18">
+        <v>62.002529</v>
+      </c>
+      <c r="O18">
+        <v>0.9730532601655376</v>
+      </c>
+      <c r="P18">
+        <v>0.9791061892573283</v>
+      </c>
+      <c r="Q18">
+        <v>4.987907116708167</v>
+      </c>
+      <c r="R18">
+        <v>29.927442700249</v>
+      </c>
+      <c r="S18">
+        <v>0.01840823228351661</v>
+      </c>
+      <c r="T18">
+        <v>0.01242685825553069</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.5</v>
+      </c>
+      <c r="G19">
+        <v>0.2413405</v>
+      </c>
+      <c r="H19">
+        <v>0.482681</v>
+      </c>
+      <c r="I19">
+        <v>0.01891801100423318</v>
+      </c>
+      <c r="J19">
+        <v>0.01269204340844451</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.02296733333333334</v>
+      </c>
+      <c r="N19">
+        <v>0.068902</v>
+      </c>
+      <c r="O19">
+        <v>0.001081331952313201</v>
+      </c>
+      <c r="P19">
+        <v>0.001088058434716565</v>
+      </c>
+      <c r="Q19">
+        <v>0.005542947710333334</v>
+      </c>
+      <c r="R19">
+        <v>0.03325768626200001</v>
+      </c>
+      <c r="S19">
+        <v>2.045664977309009E-05</v>
+      </c>
+      <c r="T19">
+        <v>1.380968488434683E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.5</v>
+      </c>
+      <c r="G20">
+        <v>0.2413405</v>
+      </c>
+      <c r="H20">
+        <v>0.482681</v>
+      </c>
+      <c r="I20">
+        <v>0.01891801100423318</v>
+      </c>
+      <c r="J20">
+        <v>0.01269204340844451</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.01906633333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.057199</v>
+      </c>
+      <c r="O20">
+        <v>0.0008976677939735101</v>
+      </c>
+      <c r="P20">
+        <v>0.0009032517837994949</v>
+      </c>
+      <c r="Q20">
+        <v>0.004601478419833334</v>
+      </c>
+      <c r="R20">
+        <v>0.027608870519</v>
+      </c>
+      <c r="S20">
+        <v>1.698208920453659E-05</v>
+      </c>
+      <c r="T20">
+        <v>1.146411084873812E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.5</v>
+      </c>
+      <c r="G21">
+        <v>0.2413405</v>
+      </c>
+      <c r="H21">
+        <v>0.482681</v>
+      </c>
+      <c r="I21">
+        <v>0.01891801100423318</v>
+      </c>
+      <c r="J21">
+        <v>0.01269204340844451</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.3939205</v>
+      </c>
+      <c r="N21">
+        <v>0.787841</v>
+      </c>
+      <c r="O21">
+        <v>0.01854628994751353</v>
+      </c>
+      <c r="P21">
+        <v>0.01244110541443693</v>
+      </c>
+      <c r="Q21">
+        <v>0.09506897043025</v>
+      </c>
+      <c r="R21">
+        <v>0.380275881721</v>
+      </c>
+      <c r="S21">
+        <v>0.0003508589173147601</v>
+      </c>
+      <c r="T21">
+        <v>0.0001579030499690675</v>
       </c>
     </row>
   </sheetData>
